--- a/Model_comparison.xlsx
+++ b/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ed169870aa020ba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{EB5717A7-D0BD-41C0-8E22-4DD7EDBBE50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6072079-3B93-421E-8591-82FD50E88768}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{EB5717A7-D0BD-41C0-8E22-4DD7EDBBE50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF58ACF-BD6F-4FA0-8A81-242E6957DB7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DED6701C-37F4-4ED6-B2E3-5EE2D772090C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Actual \ Predicted</t>
   </si>
@@ -498,6 +498,116 @@
   </si>
   <si>
     <t>Confusion Matrix</t>
+  </si>
+  <si>
+    <t>0.9851-0.9900</t>
+  </si>
+  <si>
+    <t>0.9849-0.9633</t>
+  </si>
+  <si>
+    <t>0.8019-0.8925</t>
+  </si>
+  <si>
+    <t>0.884-0.9265</t>
+  </si>
+  <si>
+    <t>0.9881- 0.9908</t>
+  </si>
+  <si>
+    <t>Not Fraud: 27808, Fraud: 72</t>
+  </si>
+  <si>
+    <t>Not Fraud: 228, Fraud: 1892</t>
+  </si>
+  <si>
+    <t>0.9308-0.9759</t>
+  </si>
+  <si>
+    <t>0.5055-0.7788</t>
+  </si>
+  <si>
+    <t>0.9311-0.9198</t>
+  </si>
+  <si>
+    <t>0.6553-0.8434</t>
+  </si>
+  <si>
+    <t>0.9765-0.9621</t>
+  </si>
+  <si>
+    <t>Not Fraud: 27326, Fraud: 554</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not Fraud: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Fraud: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,950</t>
+    </r>
+  </si>
+  <si>
+    <t>0.9573-0.9404</t>
+  </si>
+  <si>
+    <t>0.9783-0.5536</t>
+  </si>
+  <si>
+    <t>0.4042-0.8108</t>
+  </si>
+  <si>
+    <t>0.5721-0.6580</t>
+  </si>
+  <si>
+    <t>0.8673-0.9197</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not Fraud: 26494, Fraud: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1386</t>
+    </r>
+  </si>
+  <si>
+    <t>Not Fraud: 401, Fraud: 1719</t>
   </si>
 </sst>
 </file>
@@ -592,6 +702,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51B293B-666B-4DD9-99A2-4C5F1E854313}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H22"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1319,7 +1433,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1448,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -1426,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96D90F4-5908-48B0-BAD3-CF97E6BB59A6}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,14 +1606,14 @@
       <c r="E5">
         <v>0.83289999999999997</v>
       </c>
-      <c r="F5">
-        <v>0.95730000000000004</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.98509999999999998</v>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="I5" s="2">
         <v>0.98599999999999999</v>
@@ -1523,14 +1637,14 @@
       <c r="E6">
         <v>0.2908</v>
       </c>
-      <c r="F6">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="G6">
-        <v>0.50549999999999995</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.9849</v>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I6" s="2">
         <v>0.84230000000000005</v>
@@ -1554,14 +1668,14 @@
       <c r="E7">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F7">
-        <v>0.4042</v>
-      </c>
-      <c r="G7">
-        <v>0.93110000000000004</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.80189999999999995</v>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I7" s="3">
         <v>0.93300000000000005</v>
@@ -1585,14 +1699,14 @@
       <c r="E8">
         <v>0.4451</v>
       </c>
-      <c r="F8">
-        <v>0.57210000000000005</v>
-      </c>
-      <c r="G8">
-        <v>0.65529999999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.88400000000000001</v>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I8" s="2">
         <v>0.88549999999999995</v>
@@ -1616,14 +1730,14 @@
       <c r="E9">
         <v>0.9546</v>
       </c>
-      <c r="F9">
-        <v>0.86729999999999996</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.98809999999999998</v>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="I9" s="2">
         <v>0.98740000000000006</v>
@@ -1640,7 +1754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,13 +1791,13 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>60</v>
@@ -1703,13 +1817,13 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>61</v>
